--- a/Lecture 13 - Multiple regression/Examples/Galton_regressions.xlsx
+++ b/Lecture 13 - Multiple regression/Examples/Galton_regressions.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\Lecture 13 - Multiple regression\Examples\Galton_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\Lecture 13 - Multiple regression\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F1A09-D67B-4CE9-9A93-5B43173E23D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D832C2-A35A-4391-A31A-12B029D31768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Simple regression" sheetId="2" r:id="rId2"/>
+    <sheet name="Multiple regression" sheetId="3" r:id="rId3"/>
+    <sheet name="Predictions" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Father_height</t>
   </si>
@@ -33,15 +49,117 @@
   <si>
     <t>gender</t>
   </si>
+  <si>
+    <t>1. Simple and multiple regression</t>
+  </si>
+  <si>
+    <t>2. Prediction</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>Father height</t>
+  </si>
+  <si>
+    <t>Mother height</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,12 +181,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,15 +514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D935"/>
+  <dimension ref="A1:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +541,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>199.39</v>
       </c>
@@ -402,8 +558,11 @@
       <c r="D2">
         <v>185.928</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>199.39</v>
       </c>
@@ -417,7 +576,7 @@
         <v>175.768</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>199.39</v>
       </c>
@@ -431,7 +590,7 @@
         <v>175.26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>199.39</v>
       </c>
@@ -445,7 +604,7 @@
         <v>175.26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>191.77</v>
       </c>
@@ -459,7 +618,7 @@
         <v>186.69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>191.77</v>
       </c>
@@ -473,7 +632,7 @@
         <v>184.15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>191.77</v>
       </c>
@@ -487,7 +646,7 @@
         <v>166.37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>191.77</v>
       </c>
@@ -501,7 +660,7 @@
         <v>166.37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>190.5</v>
       </c>
@@ -515,7 +674,7 @@
         <v>180.34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>190.5</v>
       </c>
@@ -529,7 +688,7 @@
         <v>172.72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>190.5</v>
       </c>
@@ -543,7 +702,7 @@
         <v>179.07</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>190.5</v>
       </c>
@@ -557,7 +716,7 @@
         <v>173.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>190.5</v>
       </c>
@@ -571,7 +730,7 @@
         <v>170.18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>190.5</v>
       </c>
@@ -585,7 +744,7 @@
         <v>163.83000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>190.5</v>
       </c>
@@ -13469,4 +13628,632 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C6531-E6A9-401E-B841-EC7EC25384CE}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="206" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.26603853892271562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.0776504192133272E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.9779483273884488E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.7683697077236058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5457.8619169823214</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5457.8619169823214</v>
+      </c>
+      <c r="E12" s="1">
+        <v>70.987983197432371</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.3498077148883672E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>932</v>
+      </c>
+      <c r="C13" s="1">
+        <v>71656.174432794855</v>
+      </c>
+      <c r="D13" s="1">
+        <v>76.884307331324948</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>933</v>
+      </c>
+      <c r="C14" s="2">
+        <v>77114.036349777176</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>101.9538088288818</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.0261806662400907</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12.702655605264694</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.2703898190740465E-34</v>
+      </c>
+      <c r="F17" s="1">
+        <v>86.202328201808712</v>
+      </c>
+      <c r="G17" s="1">
+        <v>117.7052894559549</v>
+      </c>
+      <c r="H17" s="1">
+        <v>86.202328201808712</v>
+      </c>
+      <c r="I17" s="1">
+        <v>117.7052894559549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.38450503160660221</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.5636214044328369E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.4254366769582667</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.3498077148876671E-16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.29494338687116872</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.4740666763420357</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.29494338687116872</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.4740666763420357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575A8AD8-9743-4A5F-AF7C-F232C266CE46}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.79712398091869197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.63540664095566313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.63423053334584267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.4983150441731716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>48998.770807544817</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16332.923602514938</v>
+      </c>
+      <c r="E12" s="1">
+        <v>540.26233284271643</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.3837250734189408E-203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>930</v>
+      </c>
+      <c r="C13" s="1">
+        <v>28115.265542232355</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30.231468324981027</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>933</v>
+      </c>
+      <c r="C14" s="2">
+        <v>77114.036349777176</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>41.963949357389133</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.9270983465193554</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.0579404619648098</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.9999062096332255E-9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>28.369393607767201</v>
+      </c>
+      <c r="G17" s="1">
+        <v>55.558505107011065</v>
+      </c>
+      <c r="H17" s="1">
+        <v>28.369393607767201</v>
+      </c>
+      <c r="I17" s="1">
+        <v>55.558505107011065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.39284333002984201</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.8676816423519689E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13.698986813182167</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.8186050599493774E-39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.33656455931091628</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.44912210074876774</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.33656455931091628</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.44912210074876774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.31761007205639025</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.1000382210156746E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10.245359876638254</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.0613538852303558E-23</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.25677126147023449</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.378448882642546</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.25677126147023449</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.378448882642546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13.246072951365655</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.36019472310546058</v>
+      </c>
+      <c r="D20" s="2">
+        <v>36.774755713140657</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.6782017604321787E-183</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12.539184294813341</v>
+      </c>
+      <c r="G20" s="2">
+        <v>13.952961607917969</v>
+      </c>
+      <c r="H20" s="2">
+        <v>12.539184294813341</v>
+      </c>
+      <c r="I20" s="2">
+        <v>13.952961607917969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670EBF50-CE54-4254-9BD5-EA74818A5B66}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41.963949357389133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.39284333002984201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.31761007205639025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13.246072951365655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>A9*B$3+B9*B$4+B$5*C9+B$2</f>
+        <v>164.27904695184282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>182</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>A10*B$3+B10*B$4+B$5*C10+B$2</f>
+        <v>177.52511990320849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>